--- a/Question_Set2/Programming skills/Node.js.xlsx
+++ b/Question_Set2/Programming skills/Node.js.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You wrote a snippet of code in JavaScript for the browser. Now you want to port that code to Node.js. However, the browser code uses the window object to store and access global variables, which is not available in Node.js. How can you accommodate this?', 'ques_type': 2, 'options': ['Use Node.js’s global object instead.', 'Install the Gecko engine to run Node.js on, instead of V8.', 'Use the document variable instead of the window variable.', 'Install webpack to convert the browser code to Node.js code.'], 'score': 'Use Node.js’s global object instead.'}, {'title': 'You are working as a developer on a project. You want to install some dependencies that will be useful to you while you are writing the code. However, you do not need these dependencies to be available when the application actually runs in production. How should you specify that the dependency be available for developers but not in production?', 'ques_type': 2, 'options': ['Delete the developer dependencies from the node_modules/ directory in production.', 'Switch from npm to yarn.', 'Use the --save-dev flag when installing the package with npm install.', 'Install the dependency using pip install.'], 'score': 'Use the --save-dev flag when installing the package with npm install.'}, {'title': 'Your team wants to select a framework to use on top of Node.js to facilitate API development. Your colleagues explain that they need a mainstream, minimal, unopinionated framework. Since you are the most experienced developer on the team, they ask you which framework they should use. What framework would best meet these requirements?', 'ques_type': 2, 'options': ['Deno', 'React', 'Nuxt.js', 'Express'], 'score': 'Express'}, {'title': 'You are writing a web application with Node.js and want to store users’ passwords. After a meeting, management asks you to protect the passwords from common attacks, such as rainbow tables. True or false: You can protect the passwords from rainbow tables by hashing them with salt.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You wrote a snippet of code in JavaScript for the browser. Now you want to port that code to Node.js. However, the browser code uses the window object to store and access global variables, which is not available in Node.js. How can you accommodate this?",
+        "ques_type": 2,
+        "options": [
+            "Use Node.js\u2019s global object instead.",
+            "Install the Gecko engine to run Node.js on, instead of V8.",
+            "Use the document variable instead of the window variable.",
+            "Install webpack to convert the browser code to Node.js code."
+        ],
+        "score": "Use Node.js\u2019s global object instead."
+    },
+    {
+        "title": "You are working as a developer on a project. You want to install some dependencies that will be useful to you while you are writing the code. However, you do not need these dependencies to be available when the application actually runs in production. How should you specify that the dependency be available for developers but not in production?",
+        "ques_type": 2,
+        "options": [
+            "Delete the developer dependencies from the node_modules/ directory in production.",
+            "Switch from npm to yarn.",
+            "Use the --save-dev flag when installing the package with npm install.",
+            "Install the dependency using pip install."
+        ],
+        "score": "Use the --save-dev flag when installing the package with npm install."
+    },
+    {
+        "title": "Your team wants to select a framework to use on top of Node.js to facilitate API development. Your colleagues explain that they need a mainstream, minimal, unopinionated framework. Since you are the most experienced developer on the team, they ask you which framework they should use. What framework would best meet these requirements?",
+        "ques_type": 2,
+        "options": [
+            "Deno",
+            "React",
+            "Nuxt.js",
+            "Express"
+        ],
+        "score": "Express"
+    },
+    {
+        "title": "You are writing a web application with Node.js and want to store users\u2019 passwords. After a meeting, management asks you to protect the passwords from common attacks, such as rainbow tables. True or false: You can protect the passwords from rainbow tables by hashing them with salt.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
